--- a/output.xlsx
+++ b/output.xlsx
@@ -435,456 +435,456 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chiles Clemente Jacques Habaneros Molidos 220g</t>
+          <t>Tamarindo Chedraui 500g</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>750105247343</t>
+          <t>750300612803</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mix Antioxidante 7 Pack Mister Natural 280g</t>
+          <t>Aderezo Marie’s Creamy Ranch 354ml</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>80880688714</t>
+          <t>7184004281</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gérmen de Alfalfa Germimax con Aderezo César 80g</t>
+          <t>Mostaza Maille Dijonaise 200g</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>750032626413</t>
+          <t>325054108291</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiles Clemente Jacques Habaneros Rodajas Gourmet 220g</t>
+          <t>Aderezo Marie’s Light Chunky Blue Cheese 354ml</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>750105247833</t>
+          <t>7184005081</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alioli Cebollín Tiempo de Cosecha 190g</t>
+          <t>Aderezo Vegetalistos Aguacate habanero 254g</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>750301898762</t>
+          <t>750301955499</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aderezo Vegetalistos Mango Thai 268g</t>
+          <t>Aderezo Marie’s Honey 354ml</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>750301955462</t>
+          <t>7184006134</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chimichurri Tiempo de Cosecha 180g</t>
+          <t>Ensalada Festival Mr. Lucky Clásica  312g</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>750301898761</t>
+          <t>79663122112</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acondicionador Sedal Co Creations Keratina con Antioxidante 650ml</t>
+          <t>Ensalada Eva Provenza 200g</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>750630623443</t>
+          <t>750224646030</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Super Seeds de Hemp Original Planet Hemp 175 G</t>
+          <t>Mostaza Wild Harvest 340 g</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>77093408265</t>
+          <t>71153550161</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pan Molido Selecto Gr 210</t>
+          <t>Guarnicion Hidrocool Mixta 500g</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>750125365574</t>
+          <t>750300539411</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cheetos Crunchy  226.8g</t>
+          <t>Ensalada SuperFoods Mix 150g</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2840001724</t>
+          <t>60116920101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mostaza La Antigua Bornier 210 gr</t>
+          <t>Jalapeños Nachos La Morena  210g</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>310471610254</t>
+          <t>750106280102</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rajas Rojas La Morena  210g</t>
+          <t>Bronceador KiinSun Zanahoria Natural 165g</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>750106270022</t>
+          <t>750300876006</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Queso Springfield Mozzarella 226g</t>
+          <t>Gérmen Combinado Germimax de Alfalfa y Zanahoria 200g</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4138055316</t>
+          <t>750032626411</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Súper Jeringa Mr.Pavo 35 ml</t>
+          <t>Panque De Orno con Zanahoria 320g</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>750300787742</t>
+          <t>750303012704</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mostaza Bornier Suave 210 g</t>
+          <t>Bolonia de Pavo Longmont  454 g</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>310471612032</t>
+          <t>64523001105</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cuaderno profesional Barrilito Espiral Rayado</t>
+          <t>Zinolox 4G 5 tab 400 mg Liomont</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>750121498743</t>
+          <t>750129930732</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rol de Canela Rayado</t>
+          <t>Detergente Persil Brisa fresca Polvo Bol</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2358042</t>
+          <t>750119941774</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ensalada Freshly Mixta 300g</t>
+          <t>Tarro 390 RSXXI Ml Marvel</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>750224646902</t>
+          <t>750195404656</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tarro 390 RSXXI Ml Marvel</t>
+          <t>Bastones de Dulce Sour Patch 170g</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>750195404656</t>
+          <t>3080060800</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Salchicha Obertal Schubling 390 Gr</t>
+          <t>Cuaderno profesional Barrilito Cosido Rayado</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>750200498146</t>
+          <t>750121498738</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cuaderno profesional Barrilito Cosido Rayado</t>
+          <t>Coco Springfield Rayado 396g</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>750121498738</t>
+          <t>4138027007</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manteca Vegetal Chedraui Bol 1 Kg</t>
+          <t>Rol de Canela Rayado</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>750125362613</t>
+          <t>2358042</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Coco Springfield Rayado 396g</t>
+          <t>Manteca Vegetal Chedraui Bol 1 Kg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4138027007</t>
+          <t>750125362613</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bolsas para Sándwich Bol Rol Compostables 50 Bolsas</t>
+          <t>Cuaderno profesional Barrilito Espiral Rayado</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>750221116281</t>
+          <t>750121498743</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bolsas para Guardar Bol Rol Compostables Grandes 15 Bolsas</t>
+          <t>Bolsas para Snacks Bol Rol Snack 40 Bolsas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>750221116283</t>
+          <t>750221116134</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bolsas para Snacks Bol Rol Snack 40 Bolsas</t>
+          <t>Bolsas para Sándwich Bol Rol 50 Bolsas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>750221116134</t>
+          <t>750221116135</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bolsas para Sándwich Bol Rol 50 Bolsas</t>
+          <t>Bolsas para Sándwich Bol Rol Compostables 50 Bolsas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>750221116135</t>
+          <t>750221116281</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bolsas para Congelar Bol Rol Medianas 18 Bolsas</t>
+          <t>Bolsas para Guardar Bol Rol Compostables Medianas 25 Bolsas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>750221116169</t>
+          <t>750221116282</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bolsas para Guardar Bol Rol Compostables Medianas 25 Bolsas</t>
+          <t>Bolsas para Guardar Bol Rol Compostables Grandes 15 Bolsas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>750221116282</t>
+          <t>750221116283</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bolsas para Congelar Bol Rol Grandes 13 Bolsas</t>
+          <t>Bolsas para Sándwich Bol Rol Medianas 100 Bolsas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>750221116171</t>
+          <t>750221116229</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bolsas para Sándwich Bol Rol Medianas 100 Bolsas</t>
+          <t>Bolsas para Guardar Bol Rol Grandes 16 Bolsas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>750221116229</t>
+          <t>750221116170</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Botana Signature Select Zesty Ranch 255g</t>
+          <t>Bolsas para Congelar Bol Rol Medianas 18 Bolsas</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2113029376</t>
+          <t>750221116169</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salsa Zaaschila Ranch &amp; Jalapeño 425g</t>
+          <t>Bolsas para Congelar Bol Rol Grandes 13 Bolsas</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>63681715425</t>
+          <t>750221116171</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bolsas para Guardar Bol Rol Medianas 22 Bolsas</t>
+          <t>Betabel Cook's Pantry Rebanado Orgánico 700g</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>750221116168</t>
+          <t>81774502007</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Betabel Cook's Pantry Rebanado Orgánico 700g</t>
+          <t>Bolsas para Guardar Bol Rol Medianas 22 Bolsas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>81774502007</t>
+          <t>750221116168</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Queso Carol Mozzarella 226g</t>
+          <t>Ensalada Freshly Mixta 300g</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>750122720161</t>
+          <t>750224646902</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bolsas para Guardar Bol Rol Grandes 16 Bolsas</t>
+          <t>G Active Water Fresa Kiwi 1L</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>750221116170</t>
+          <t>750102201154</t>
         </is>
       </c>
     </row>
@@ -903,636 +903,636 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Crutones Clemente Jacques Ranch 142g</t>
+          <t>G Active Water Mandarina1L</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>750105243722</t>
+          <t>750102201156</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aderezo Ranch Full Circle Organico  326g</t>
+          <t>G Active Water Fresa Kiwi 500ml</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3680013197</t>
+          <t>750102201029</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Papas Tgi Fridays Tocino Ranch 191g</t>
+          <t>G Active Water Mandarina 200ml</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>72049592968</t>
+          <t>750102201031</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Papas Tgi Fridays Buffalo Ranch 92g</t>
+          <t>Crutones Clemente Jacques Ranch 142g</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>72049592233</t>
+          <t>750105243722</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aderezo Ranch Hidden Valley Light  236ml</t>
+          <t>PAN RANCHERO MEÑO 4 PZAS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7110000576</t>
+          <t>750222733023</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Huevo San Andres Ranch Rojo 12 Piezas</t>
+          <t>Queso Carol Mozzarella 226g</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>750004114535</t>
+          <t>750122720161</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Queso Bionda Asadero Ranch 454g</t>
+          <t>Queso Springfield Mozzarella 226g</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>750300589857</t>
+          <t>4138055316</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aderezo Clemente Jacques Ranch 473g</t>
+          <t>Cheetos Crunchy  226.8g</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>750105247023</t>
+          <t>2840001724</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aderezo Clemente Jacques Ranch Light 237g</t>
+          <t>Salsa Zaaschila Ranch &amp; Jalapeño 425g</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>750105247053</t>
+          <t>63681715425</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aderezo Clemente Jacques Ranch 237g</t>
+          <t>Botana Signature Select Zesty Ranch 255g</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>750105247008</t>
+          <t>2113029376</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bolis jolly ranch cong 283 g</t>
+          <t>Aderezo Ranch Full Circle Organico  326g</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7239263291</t>
+          <t>3680013197</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sal Badia 226g</t>
+          <t>Huevo San Andres Ranch Rojo 12 Piezas</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3384400398</t>
+          <t>750004114535</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Croutones Marzetti Ranch  142g</t>
+          <t>Papas Tgi Fridays Buffalo Ranch 92g</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7020058104</t>
+          <t>72049592233</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Té Lipton 226g</t>
+          <t>Papas Tgi Fridays Tocino Ranch 191g</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>412870</t>
+          <t>72049592968</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Doritos Cooler Ranch  198.4g</t>
+          <t>Queso Bionda Asadero Ranch 454g</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2840001709</t>
+          <t>750300589857</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aderezo Del Molino Ranch Chipotle 365 ml</t>
+          <t>Aderezo Clemente Jacques Ranch 237g</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>750300021707</t>
+          <t>750105247008</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>G Active Water Fresa Kiwi 1L</t>
+          <t>Aderezo Clemente Jacques Ranch Light 237g</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>750102201154</t>
+          <t>750105247053</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>G Active Water Mandarina1L</t>
+          <t>Aderezo Ranch Hidden Valley Light  236ml</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>750102201156</t>
+          <t>7110000576</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>G Active Water Fresa Kiwi 500ml</t>
+          <t>Doritos Cooler Ranch  198.4g</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>750102201029</t>
+          <t>2840001709</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>G Active Water Mandarina 200ml</t>
+          <t>Té Lipton 226g</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>750102201031</t>
+          <t>412870</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>G Active Water Limón 500ml</t>
+          <t>Sal Badia 226g</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>750102201032</t>
+          <t>3384400398</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>G Active Water Limón 1L</t>
+          <t>Aderezo Wishbone Ranch  237g</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>750102201155</t>
+          <t>4100000570</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PAN INTEGRAL CHICO MEÑO  4 PZAS</t>
+          <t>Aderezo Clemente Jacques Ranch 473g</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>750222733022</t>
+          <t>750105247023</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tortilla Harina Integ Meño Tortillon 2Pz</t>
+          <t>Croutones Marzetti Ranch  142g</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>750222733011</t>
+          <t>7020058104</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PAN RANCHERO MEÑO 4 PZAS</t>
+          <t>Tortilla Harina Integ Meño Tortillon 2Pz</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>750222733023</t>
+          <t>750222733011</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Frijoles Ranch Style 425g</t>
+          <t>PAN INTEGRAL CHICO MEÑO  4 PZAS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4690000177</t>
+          <t>750222733022</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bolsa PVC Mi Villano Favorito</t>
+          <t>Tortilla Harina Integral Meño 10Pz 400Gr</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>750038310260</t>
+          <t>750222733004</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tortilla Harina Integral Meño 10Pz 400Gr</t>
+          <t>Tortilla Harina Integral Meño 20Pz 930Gr</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>750222733004</t>
+          <t>750222733006</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico Madres 1 Pieza</t>
+          <t>Aderezo Del Molino Ranch Chipotle 365 ml</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>770775072541</t>
+          <t>750300021707</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bolsa PVC Disney</t>
+          <t>Cobertor Convertible Baby Moments</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>750038310259</t>
+          <t>750113550282</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tortilla Harina Integral Meño 20Pz 930Gr</t>
+          <t>Pañales BioBaby Unisex Etapa 6 Extra Extra Grande 34 Pañales</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>750222733006</t>
+          <t>1311702941</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bolsa PVC Molang</t>
+          <t>Multiprenda Baby Optima 34323 6M</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>750038309824</t>
+          <t>750045637386</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bolsa Nico Toda Ocasión Recicla Gte 1 Pieza</t>
+          <t>Multiprenda Baby Optima 34323 9M</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>770775072049</t>
+          <t>750045637387</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
+          <t>Salchicha Oscar Mayer Jumbo 454 Gr</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>770775078113</t>
+          <t>4470006602</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Espinaca y Arúgula Agros Ensalada Delicia 180g</t>
+          <t>Multiprenda Baby Optima 34323 3M</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>75060116914</t>
+          <t>750045637385</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
+          <t>Salchichas Oscar Mayer 454g</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>770775072747</t>
+          <t>4470006605</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Espinaca La Huerta 500g</t>
+          <t>Catsup Clemente Jacques 454g</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>750104790259</t>
+          <t>750105247225</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Espinaca Freshly 200g</t>
+          <t>Cacahuate Chedraui Tostado 454g</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>750224646900</t>
+          <t>750125362642</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Espinaca Hidrocool 300g</t>
+          <t>Multiprenda Baby Optima 34323 12M</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>750300539415</t>
+          <t>750045637388</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
+          <t>Mantequilla Challenge con Sal 454g</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>770775078114</t>
+          <t>4720015260</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
+          <t>Queso Springfield Cheddar 454g</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>770775072818</t>
+          <t>304138055047</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Espinaca Daily 300g</t>
+          <t>Xilitol Endulzante Now Natural  454 g</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>75428000310</t>
+          <t>73373906983</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Espinaca Baby Mr. Lucky Popeye 227g</t>
+          <t>Paquete Mixto Butterball  454g</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>79663158106</t>
+          <t>2265529022</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Vinagreta Marie’s Balsamic 340ml</t>
+          <t>Frijoles Ranch Style 425g</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7184009112</t>
+          <t>4690000177</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Pan sin Gluten Red y Zanahoria</t>
+          <t>Pañales BioBaby Unisex Etapa 6 Extra Extra Grande 60 Pañales</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>750303012737</t>
+          <t>1311703050</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mostaza Wild Harvest 340 g</t>
+          <t>Aplicdrs Suavinetes Bol 150 Pzas 80 G</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>71153550161</t>
+          <t>750225812030</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Espinaca Baby Mr. Lucky Popeye 180g</t>
+          <t>Pañales BioBaby Unisex Etapa Recién Nacido 20 Pañales</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>79663158112</t>
+          <t>1311703063</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Espinaca Baby Agros 150g</t>
+          <t>Pan sin Gluten Red y Zanahoria</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>60116920601</t>
+          <t>750303012737</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Espinaca Mr.Lucky Popeye 284g</t>
+          <t>Chícharo con Zanahoria La Huerta 500g</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>79663158104</t>
+          <t>750104790306</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lechuga Mr. Lucky Rallada 284g</t>
+          <t>Zanahoria Cambray por kg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>79663173227</t>
+          <t>2507687</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bronceador KiinSun Zanahoria Natural 165g</t>
+          <t>Chicharos con Zanahoria Herdez 225g</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>750300876006</t>
+          <t>750100312416</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chícharo con Zanahoria La Huerta 500g</t>
+          <t>Mezcla Mr. Lucky Brócoli Zanahoria 454g</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>750104790306</t>
+          <t>79663116119</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Panque De Orno con Zanahoria 320g</t>
+          <t>Semilla Hortaflor H616 Zanahoria</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>750303012704</t>
+          <t>750227061084</t>
         </is>
       </c>
     </row>
@@ -1551,384 +1551,384 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Playera Baby Optima Blanco Talla 3 Meses</t>
+          <t>Baby Bella Monteblanco Selección 350g</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>750045637381</t>
+          <t>750102426008</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Chicharos con Zanahoria Herdez 225g</t>
+          <t>Lechuga Mr. Lucky Rallada 284g</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>750100312416</t>
+          <t>79663173227</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Semilla Hortaflor H616 Zanahoria</t>
+          <t>Jugo de Zanahoria 1L</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>750227061084</t>
+          <t>2352463</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Multiprenda Baby Optima 34323 6M</t>
+          <t>Zanahoria por kg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>750045637386</t>
+          <t>2502958</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pañales BioBaby Unisex Etapa 6 Extra Extra Grande 34 Pañales</t>
+          <t>Jugo de Zanahoria 1.5L</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1311702941</t>
+          <t>2352466</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Muñeca Suave 9914</t>
+          <t>Zanahoria Baby Orgánica 454g</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>489708070268</t>
+          <t>3260104100</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Multiprenda Baby Optima 34323 9M</t>
+          <t>Zanahoria La Costeña en Escabeche 230g</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>750045637387</t>
+          <t>750101700583</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cobertor Convertible Baby Moments</t>
+          <t>Zanahoria enchilada Verdusanas Natural 140g</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>750113550282</t>
+          <t>750301691176</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Multiprenda Baby Optima 34323 12M</t>
+          <t>Zanahoria Bolthose Tetrapak  256g</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>750045637388</t>
+          <t>7146410096</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zanahoria Cambray por kg</t>
+          <t>Zanahoria Baby Mr. Lucky 454g</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2507687</t>
+          <t>79663197109</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Multiprenda Baby Optima 34323 3M</t>
+          <t>Café La Cordobesa 454g</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>750045637385</t>
+          <t>750103835028</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Zanahoria por kg</t>
+          <t>Zanahoria Bolthouse Zanahoria baby 340g</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2502958</t>
+          <t>3338366600</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Zanahoria La Costeña en Escabeche 230g</t>
+          <t>Jícama enchilada Verdusanas Natural 140g</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>750101700583</t>
+          <t>750301691195</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Aplicdrs Suavinetes Bol 150 Pzas 80 G</t>
+          <t>Bits Eva California 454g</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>750225812030</t>
+          <t>750224646031</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jugo de Zanahoria 1L</t>
+          <t>Esparrago Verde 454g</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2352463</t>
+          <t>3338370220</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Zanahoria Bolthose Tetrapak  256g</t>
+          <t>Haba La Merced 454 g</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7146410096</t>
+          <t>750104720073</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Zanahoria enchilada Verdusanas Natural 140g</t>
+          <t>Lenteja La Merced 454 g</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>750301691176</t>
+          <t>750104720070</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Jugo de Zanahoria 1.5L</t>
+          <t>Edulcorante Lakanto Classic 454 Gr</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2352466</t>
+          <t>84307600022</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Baby Bella Monteblanco Selección 350g</t>
+          <t>Margarina Sprinfield 454g</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>750102426008</t>
+          <t>4138055001</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Torundas Supramed 150 Torundas</t>
+          <t>Edulcorante Lakanto Golden 454 Gr</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>750104862378</t>
+          <t>84307600025</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Boquerón Enchilado 150g</t>
+          <t>Maiz Palomero Merced 454 g</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>750301972116</t>
+          <t>750104720065</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Boquerón Frito 150g</t>
+          <t>Chips Verdusanas Jícama Enchilada 40g</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>750301972117</t>
+          <t>750301691147</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Zanahoria Baby Mr. Lucky 454g</t>
+          <t>Semilla Hortaflor H960 Jicama</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>79663197109</t>
+          <t>750227061062</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dimetapp Infantil 150Ml</t>
+          <t>Camarón Seco 150g</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>750110876559</t>
+          <t>750301972119</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Camarón Seco 150g</t>
+          <t>Dimetapp Infantil 150Ml</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>750301972119</t>
+          <t>750110876559</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Spray Walfort Antibacterial 150</t>
+          <t>Boquerón Enchilado 150g</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>750226376166</t>
+          <t>750301972116</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Zanahoria Bolthouse Zanahoria baby 340g</t>
+          <t>Jícama por Kg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3338366600</t>
+          <t>2502186</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Papilla Nature's Heart Baby Food Organic Manzana, Mango, Zanahoria, Kale Pouch Nature's Heart 99g</t>
+          <t>Chicharrón Lagrimita Wand´s 150 g</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>750225248414</t>
+          <t>750046256025</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sebryl Normal 150 G</t>
+          <t>Boquerón Frito 150g</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>750110164965</t>
+          <t>750301972117</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cereal Happy Family  Kale Spinach Puffs 60g</t>
+          <t>Sebryl Plus 150 G</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>85269700120</t>
+          <t>750120134001</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Dimacol Infantil 150Ml</t>
+          <t>Sebryl Normal 150 G</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>750110876557</t>
+          <t>750110164965</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sebryl Plus 150 G</t>
+          <t>Dimacol Infantil 150Ml</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>750120134001</t>
+          <t>750110876557</t>
         </is>
       </c>
     </row>
@@ -1947,12 +1947,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ensalada Orgánica Earthbound Farm Kale con Arúgula 142g</t>
+          <t>Torundas Supramed 150 Torundas</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3260190282</t>
+          <t>750104862378</t>
         </is>
       </c>
     </row>
@@ -1971,1404 +1971,1404 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Salchicha Oscar Mayer Jumbo 454 Gr</t>
+          <t>Papilla Nature's Heart Baby Food Organic Manzana, Mango, Zanahoria, Kale Pouch Nature's Heart 99g</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4470006602</t>
+          <t>750225248414</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ensalada Mr. Lucky Kale y Espinaca 200g</t>
+          <t>Cereal Happy Family  Kale Spinach Puffs 60g</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>79663106128</t>
+          <t>85269700120</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Kale Agros 150g</t>
+          <t>Ensalada Orgánica Earthbound Farm Kale con Arúgula 142g</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>60116930501</t>
+          <t>3260190282</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ensalada Mr. Lucky de Kale Orgánico 200g</t>
+          <t>Ensalada Mr. Lucky Kale y Espinaca 200g</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>79663106117</t>
+          <t>79663106128</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Nueces y Fruta Nature's heart Superfood trail 250g</t>
+          <t>Ensalada Kale Campo Vivo Orgánica 100g</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>750225248499</t>
+          <t>750223617260</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ensalada Kale Campo Vivo Orgánica 100g</t>
+          <t>Ensalda Personal Daily Thai con Kale 165g</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>750223617260</t>
+          <t>75428000184</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Muesli Tu Tipo Superfood Mix 250 g</t>
+          <t>Ensalada Orgánica Earthbound Farm Kale 142g</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>750032630846</t>
+          <t>2355055</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kale Euphoria Superfoods Orgánico en Polvo 150g</t>
+          <t>Nueces y Fruta Nature's heart Superfood trail 250g</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>750302279501</t>
+          <t>750225248499</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Queso Springfield Cheddar 454g</t>
+          <t>Ensalada Mr. Lucky de Kale Orgánico 200g</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>304138055047</t>
+          <t>79663106117</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ensalada Orgánica Earthbound Farm Kale 142g</t>
+          <t>Muesli Tu Tipo Superfood Mix 250 g</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2355055</t>
+          <t>750032630846</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mantequilla Challenge con Sal 454g</t>
+          <t>Kale Euphoria Superfoods Orgánico en Polvo 150g</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4720015260</t>
+          <t>750302279501</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Paquete Mixto Butterball  454g</t>
+          <t>Kale Agros 150g</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2265529022</t>
+          <t>60116930501</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cacahuate Chedraui Tostado 454g</t>
+          <t>Bolsa Nico Toda Ocasión Recicla Gte 1 Pieza</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>750125362642</t>
+          <t>770775072049</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Bolonia de Pavo Longmont  454 g</t>
+          <t>Súper Jeringa Mr.Pavo 35 ml</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>64523001105</t>
+          <t>750300787742</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Catsup Clemente Jacques 454g</t>
+          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>750105247225</t>
+          <t>770775072818</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Xilitol Endulzante Now Natural  454 g</t>
+          <t>Bolsa PVC Mi Villano Favorito</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>73373906983</t>
+          <t>750038310260</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Salchichas Oscar Mayer 454g</t>
+          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4470006605</t>
+          <t>770775078113</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Jícama enchilada Verdusanas Natural 140g</t>
+          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>750301691195</t>
+          <t>770775078114</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Esparrago Verde 454g</t>
+          <t>Bolsa PVC Molang</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3338370220</t>
+          <t>750038309824</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Edulcorante Lakanto Classic 454 Gr</t>
+          <t>Bolsa de Regalo Nico San Valentín 1 Pieza</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>84307600022</t>
+          <t>770775072747</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Zanahoria Baby Orgánica 454g</t>
+          <t>Bolsa PVC Disney</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3260104100</t>
+          <t>750038310259</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Edulcorante Lakanto Golden 454 Gr</t>
+          <t>Espinaca Freshly 200g</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>84307600025</t>
+          <t>750224646900</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Haba La Merced 454 g</t>
+          <t>Bolsa de Regalo Nico Madres 1 Pieza</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>750104720073</t>
+          <t>770775072486</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Lenteja La Merced 454 g</t>
+          <t>Espinaca La Huerta 500g</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>750104720070</t>
+          <t>750104790259</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bits Eva California 454g</t>
+          <t>Espinaca y Arúgula Agros Ensalada Delicia 180g</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>750224646031</t>
+          <t>75060116914</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Maiz Palomero Merced 454 g</t>
+          <t>Espinaca Daily 300g</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>750104720065</t>
+          <t>75428000310</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Margarina Sprinfield 454g</t>
+          <t>Espinaca Mr.Lucky Popeye 284g</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>4138055001</t>
+          <t>79663158104</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Jícama por Kg</t>
+          <t>Espinaca Hidrocool 300g</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2502186</t>
+          <t>750300539415</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Semilla Hortaflor H960 Jicama</t>
+          <t>Espinaca Baby Mr. Lucky Popeye 227g</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>750227061062</t>
+          <t>79663158106</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Café La Cordobesa 454g</t>
+          <t>Espinaca Baby Agros 150g</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>750103835028</t>
+          <t>60116920601</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Chips Verdusanas Jícama Enchilada 40g</t>
+          <t>Super Seeds de Hemp Original Planet Hemp 175 G</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>750301691147</t>
+          <t>77093408265</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Super Seeds de Hemp sabor Cebolla Planet Hemp 175 g</t>
+          <t>Super Foods Sin Secretos Balance 200g</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>77093408266</t>
+          <t>750302182748</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Zanahorias en Escabeche La Morena 210 g</t>
+          <t>Super Seeds de Hemp sabor Cebolla Planet Hemp 175 g</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>750106270192</t>
+          <t>77093408266</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Super Foods Sin Secretos Balance 200g</t>
+          <t>Espinaca Baby Mr. Lucky Popeye 180g</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>750302182748</t>
+          <t>79663158112</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Margarina Selecto 90 Grs Con Sal</t>
+          <t>Mezcla Mr. Lucky Brócoli Coliflor 454g</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>750125361929</t>
+          <t>79663116120</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Paleta Broncolin 10grs, Natural</t>
+          <t>Ensalada Personal Daily Espinaca con  Quinoa 150g</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>71470690130</t>
+          <t>75428000183</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Dermat Alergibon 120grs, Sin aroma</t>
+          <t>Esparrago Fresh Garden  450g</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>750200356036</t>
+          <t>67132600054</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mousse Caprice Ceramidas 250Grs</t>
+          <t>Ensalada Selecto Campestre 284g</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>750954605191</t>
+          <t>750125365573</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Salsa Verde 210g</t>
+          <t>Ensalada Selecto Verde 284g</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>750100312733</t>
+          <t>750125365571</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Margarina Selecto 225 Grs Con Sal</t>
+          <t>Lechuga y Arúgula Agros Ensalada Campestre 150g</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>750125361931</t>
+          <t>60116920201</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Tabletas Coledia Antioxidante Caja con 45 Tabletas</t>
+          <t>Ensalada Freshly Coleslaw 420g</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>65024000891</t>
+          <t>750224646018</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Pasta Lassar Andromaco 125Grs</t>
+          <t>Ensalada Eva Fresca Mixta 200g</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>750128951140</t>
+          <t>750224646049</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Frisolac 1 Gold 400 Grs</t>
+          <t>Ensalada Eva Mexicana 250g</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>871620071336</t>
+          <t>750224646089</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mix Mafer Antioxidante Fresa 35g</t>
+          <t>Ensalada Eva Beet Essence 200g</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>750047800387</t>
+          <t>750224646020</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Shampoo Sedal Keratina con Antioxidante 650ml</t>
+          <t>Ensalada Eva Primavera 250g</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>750630623316</t>
+          <t>750224646047</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Smoothie Nature's Heart Antioxidante Orgánico 100g</t>
+          <t>Germen Alfalfa por kg</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>750225248290</t>
+          <t>2502166</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Candimon Cra Vag 20Grs</t>
+          <t>Ensalada Hidropónica Hidrocool Energética 250g</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>750128951182</t>
+          <t>750300539434</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Supergota Ceys 3 Grs.</t>
+          <t>Ensalada Eva Chopped Asian 350g</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>841151900014</t>
+          <t>750224646042</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Novalac 3 800Grs</t>
+          <t>Endivia Fresh Garden 400g</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>750131862868</t>
+          <t>746</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Oleoderm Jbon 100 Grs</t>
+          <t>Ensalada Eva Toscana 250g</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>750127350020</t>
+          <t>750224646041</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ensalda Personal Daily Thai con Kale 165g</t>
+          <t>Ensalada Eva César Premium 250g</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>75428000184</t>
+          <t>750224646044</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Ensalada Festival Mr. Lucky Gourmet 260g</t>
+          <t>Mostaza French´s Clásica 226g</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>79663173157</t>
+          <t>4150075090</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ensalada Festival Mr. Lucky Clásica  312g</t>
+          <t>Mostaza McCormick  Preparada 115g</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>79663122112</t>
+          <t>750100333501</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Mezcla Mr. Lucky Brócoli Zanahoria 454g</t>
+          <t>Mostaza French´s Honey 340g</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>79663116119</t>
+          <t>4150000088</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ensalada Eva Provenza 200g</t>
+          <t>Mostaza Preparada McCormick 260g</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>750224646030</t>
+          <t>750100333512</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ensalada Personal Daily Creta 165g</t>
+          <t>Mostaza Heinz Pouch 368g</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>75428000185</t>
+          <t>750221123764</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mezcla Mr. Lucky Vegetales 454g</t>
+          <t>Dip Tostitos Queso 240g</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>79663116121</t>
+          <t>750101119447</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ensalada Eva Mexicana 250g</t>
+          <t>Mostaza Maille Dijon 215g</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>750224646089</t>
+          <t>303681020128</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mezcla Mr. Lucky Brócoli Coliflor 454g</t>
+          <t>Mega Limón  1 Lt</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>79663116120</t>
+          <t>73854501074</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lechuga y Arúgula Agros Ensalada Campestre 150g</t>
+          <t>Medias Noches Bimbo 8 Piezas 340g</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>60116920201</t>
+          <t>750100011150</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ensalada Eva Primavera 250g</t>
+          <t>Limón Eureka 1kg</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>750224646047</t>
+          <t>2504414</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Ensalada Eva Fresca Mixta 200g</t>
+          <t>G Active Water Limón 1L</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>750224646049</t>
+          <t>750102201155</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Guarnicion Hidrocool Mixta 500g</t>
+          <t>G Active Water Limón 500ml</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>750300539411</t>
+          <t>750102201032</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Ensalada SuperFoods Mix 150g</t>
+          <t>Germen de Soya por kg</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>60116920101</t>
+          <t>2503002</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ensalada Eva Toscana 250g</t>
+          <t>Limón Colima por Kg</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>750224646041</t>
+          <t>2502754</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Endivia Fresh Garden 400g</t>
+          <t>Limón sin Semilla por Kg</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>2502758</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mostaza La Costeña clásica 220g</t>
+          <t>Aderezo para Marinar Lawry´s Limón Pimienta 354g</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>750101705303</t>
+          <t>2150004804</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Mostaza La Costeña Clásica 115g</t>
+          <t>Soya Ufasoy Texturizada Bolsa 330g</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>750101700691</t>
+          <t>750300627290</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ensalada Eva César Premium 250g</t>
+          <t>Aderezo Gavilla con Soya y Limón 500g</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>750224646044</t>
+          <t>750300063401</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mostaza Heinz Pet 368g</t>
+          <t>Mango en Almíbar La Costeña Rebanadas 800g</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>60887500256</t>
+          <t>750101700334</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ensalada Hidropónica Hidrocool Energética 250g</t>
+          <t>Aderezo Gavilla Soya con limón 250g</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>750300539434</t>
+          <t>750300063406</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Germen Alfalfa por kg</t>
+          <t>Mango Oro por Kg</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2502166</t>
+          <t>2502850</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mostaza McCormick  Preparada 115g</t>
+          <t>Galanga Thai Heritage Machacada 110g</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>750100333501</t>
+          <t>885078170271</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mostaza French´s Deli 340g</t>
+          <t>Mango Manila por Kg</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>4150000053</t>
+          <t>2502842</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ensalada Eva Chopped Asian 350g</t>
+          <t>Mango Ataulfo por Kg</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>750224646042</t>
+          <t>2502840</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ensalada Eva Wok Teriyaki 420g</t>
+          <t>Mango Paraíso por Kg</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>750224646043</t>
+          <t>2502846</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Mostaza Heinz Pouch 368g</t>
+          <t>Tamarindo en Pulpa Pieza</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>750221123764</t>
+          <t>750300943700</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mostaza French´s Clásica 226g</t>
+          <t>Rajas Rojas La Morena  210g</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>4150075090</t>
+          <t>750106270022</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Mostaza Preparada McCormick 260g</t>
+          <t>Aderezo Gourmet Clemente Jacques Tamarindo 260g</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>750100333512</t>
+          <t>750105247048</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Mostaza Preparada McCormick 430g</t>
+          <t>Mostaza Bornier Suave 210 g</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>750100333503</t>
+          <t>310471612032</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Germen de Soya por kg</t>
+          <t>Tamarindo con Azúcar Olype 160g</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2503002</t>
+          <t>750222947362</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Mostaza Maille Dijon 215g</t>
+          <t>Tamarindo con Chile Olype 160g</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>303681020128</t>
+          <t>750222947416</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Mostaza French´s Dijon 340g</t>
+          <t>Tamarindo San Lazaro Entero 250g</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>4150000078</t>
+          <t>750108891685</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Mostaza Preparada McCormick 210g</t>
+          <t>Salsa Picante La Morena 210g</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>750100333502</t>
+          <t>750106270171</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Medias Noches Bimbo 8 Piezas 340g</t>
+          <t>Tamarindo por Kg</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>750100011150</t>
+          <t>2502848</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla Soya con limón 250g</t>
+          <t>Pan Molido Selecto Gr 210</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>750300063406</t>
+          <t>750125365574</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mostaza French´s Honey 340g</t>
+          <t>Mostaza La Antigua Bornier 210 gr</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>4150000088</t>
+          <t>310471610254</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Dip Tostitos Queso 240g</t>
+          <t>Salsa Verde 210g</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>750101119447</t>
+          <t>750100312733</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla con Soya y Limón 500g</t>
+          <t>Zanahorias en Escabeche La Morena 210 g</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>750300063401</t>
+          <t>750106270192</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Soya Ufasoy Texturizada Bolsa 330g</t>
+          <t>Margarina Selecto 225 Grs Sin Sal</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>750300627290</t>
+          <t>750125361932</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Tamarindo en Pulpa Pieza</t>
+          <t>Candimon Cra Vag 20Grs</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>750300943700</t>
+          <t>750128951182</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Tamarindo con Azúcar Olype 160g</t>
+          <t>Paleta Broncolin 10grs, Natural</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>750222947362</t>
+          <t>71470690130</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Tamarindo San Lazaro Entero 250g</t>
+          <t>Dermat Alergibon 120grs, Sin aroma</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>750108891685</t>
+          <t>750200356036</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Tamarindo con Chile Olype 160g</t>
+          <t>Margarina Selecto 90 Grs Con Sal</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>750222947416</t>
+          <t>750125361929</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Aderezo Gourmet Clemente Jacques Tamarindo 260g</t>
+          <t>Mousse Caprice Ceramidas 250Grs</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>750105247048</t>
+          <t>750954605191</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Tamarindo por Kg</t>
+          <t>Pasta Lassar Andromaco 125Grs</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2502848</t>
+          <t>750128951140</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Tamarindo Chedraui 500g</t>
+          <t>Frisolac 1 Gold 400 Grs</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>750300612803</t>
+          <t>871620071336</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Kale Vegetalistos 150g</t>
+          <t>Shampoo Sedal Keratina con Antioxidante 650ml</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>750301955444</t>
+          <t>750630623316</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico Madres 1 Pieza</t>
+          <t>Smoothie Nature's Heart Antioxidante Orgánico 100g</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>770775072645</t>
+          <t>750225248290</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Bolsa de Regalo Nico Madres 1 Pieza</t>
+          <t>Tabletas Coledia Antioxidante Caja con 45 Tabletas</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>770775072486</t>
+          <t>65024000891</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Betabel con Rabo</t>
+          <t>Mix Mafer Antioxidante Fresa 35g</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2507680</t>
+          <t>750047800387</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Betabel por Kg</t>
+          <t>Oleoderm Jbon 100 Grs</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2502962</t>
+          <t>750127350020</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Betabel Cambray con Rabo</t>
+          <t>Novalac 3 800Grs</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2507682</t>
+          <t>750131862868</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Aderezo Marie’s Honey 354ml</t>
+          <t>Bolsa de Regalo Nico Madres 1 Pieza</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7184006134</t>
+          <t>770775072645</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Zanahoria baby Vegetalistos 340g</t>
+          <t>Aderezo Marie’s Caesar 354ml</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>750301955495</t>
+          <t>7184004934</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mostaza Maille Dijonaise 200g</t>
+          <t>Aderezo Marie’s Chunky Blue Cheese 354ml</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>325054108291</t>
+          <t>7184005080</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Aderezo Marie’s Caesar 354ml</t>
+          <t>Supergota Ceys 3 Grs.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7184004934</t>
+          <t>841151900014</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Te Verde Bigelow Antioxidante 25g</t>
+          <t>Aderezo Vegetalistos Alcaparra 263g</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7231005847</t>
+          <t>750302430041</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Aderezo Marie’s Creamy Ranch 354ml</t>
+          <t>Aderezo Vegetalistos Balsámico 266g</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7184004281</t>
+          <t>750302430040</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Zanahoria rallada Vegetalistos 340g</t>
+          <t>Aderezo Vegetalistos Soya Limón 262g</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>750302430006</t>
+          <t>750301955414</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aderezo Marie’s Chunky Blue Cheese 354ml</t>
+          <t>Alimento para Tortuga Biomaa Turtoo Teen 100g</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7184005080</t>
+          <t>750021100517</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Aderezo Marie’s Light Chunky Blue Cheese 354ml</t>
+          <t>Aderezo Vegetalistos Mango Thai 268g</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7184005081</t>
+          <t>750301955462</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ensalada Ranch Vegetalistos 226g</t>
+          <t>Ensalada Básica Mixta Vegetalistos 250g</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>750301955438</t>
+          <t>750301955407</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Ensalada Básica Mixta Vegetalistos 250g</t>
+          <t>Aderezo Vegetalistos Tamarindo 287g</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>750301955407</t>
+          <t>750301955417</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Ensalada Super Foood 5 Vegetalistos 200g</t>
+          <t>Zanahoria rallada Vegetalistos 340g</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>750301955488</t>
+          <t>750302430006</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Espinaca Baby Orgánica Vegetalistos 142g</t>
+          <t>Ensalada Super Foood 5 Vegetalistos 200g</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>750302430051</t>
+          <t>750301955488</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ensalada Oriental Vegetalistos 300g</t>
+          <t>Zanahoria baby Vegetalistos 340g</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>750300404618</t>
+          <t>750301955495</t>
         </is>
       </c>
     </row>
@@ -3387,276 +3387,276 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Espinaca Baby Vegetalistos 250g</t>
+          <t>Ensalada Oriental Vegetalistos 300g</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>750301955489</t>
+          <t>750300404618</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Betabel rallado Vegetalistos 390g</t>
+          <t>Betabel Cambray con Rabo</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>750300404669</t>
+          <t>2507682</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Mango Ataulfo por Kg</t>
+          <t>Betabel con Rabo</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2502840</t>
+          <t>2507680</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Galanga Thai Heritage Machacada 110g</t>
+          <t>Espinaca Baby Vegetalistos 250g</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>885078170271</t>
+          <t>750301955489</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Ensalada Chopped Gorgonzola Vegetalistos 250g</t>
+          <t>Espinaca Baby Orgánica Vegetalistos 142g</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>750302430038</t>
+          <t>750302430051</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Espinaca Baby Vegetalistos 125g</t>
+          <t>Ensalada Chopped Gorgonzola Vegetalistos 250g</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>750301955470</t>
+          <t>750302430038</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Mango en Almíbar La Costeña Rebanadas 800g</t>
+          <t>Espinaca Baby Vegetalistos 125g</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>750101700334</t>
+          <t>750301955470</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Mango Oro por Kg</t>
+          <t>Te Verde Bigelow Antioxidante 25g</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2502850</t>
+          <t>7231005847</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Mango Paraíso por Kg</t>
+          <t>Kale Vegetalistos 150g</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2502846</t>
+          <t>750301955444</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Mango Manila por Kg</t>
+          <t>Ensalada Ranch Vegetalistos 226g</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2502842</t>
+          <t>750301955438</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Aderezo Vegetalistos Balsámico 266g</t>
+          <t>Betabel por Kg</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>750302430040</t>
+          <t>2502962</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla Tamarindo, Chía y Linaza 250g</t>
+          <t>Alioli Cebollín Tiempo de Cosecha 190g</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>750301827453</t>
+          <t>750301898762</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla de Maracuyá 250g</t>
+          <t>Chiles Clemente Jacques Habaneros Rodajas Gourmet 220g</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>750301827486</t>
+          <t>750105247833</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Aderezo Vegetalistos Alcaparra 263g</t>
+          <t>Chimichurri Tiempo de Cosecha 180g</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>750302430041</t>
+          <t>750301898761</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Chile Habanero por Kg</t>
+          <t>Gérmen de Alfalfa Germimax con Aderezo César 80g</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2503405</t>
+          <t>750032626413</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla Ajonjolí y Jengibre 250g</t>
+          <t>Chiles Clemente Jacques Habaneros Molidos 220g</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>750301827474</t>
+          <t>750105247343</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Aderezo Vegetalistos Soya Limón 262g</t>
+          <t>Chile Habanero por Kg</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>750301955414</t>
+          <t>2503405</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Mostaza Edmond Fallot Dijon Clásicages 250 g</t>
+          <t>Betabel rallado Vegetalistos 390g</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>323014000243</t>
+          <t>750300404669</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla Cesar  Cesar 250g</t>
+          <t>Aderezo Gavilla de Maracuyá 250g</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>750300063400</t>
+          <t>750301827486</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Mostaza Dijon Aderezo Alemán Kuhne   250ml</t>
+          <t>Aderezo Gavilla Tamarindo, Chía y Linaza 250g</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>4073724</t>
+          <t>750301827453</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla Griego 250g</t>
+          <t>Aderezo Gavilla Italiano Parmesano 250g</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>750301827487</t>
+          <t>750301827401</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Aderezo para Ensaladas Provence Estilo Casero 250ml</t>
+          <t>Mostaza Dijon Aderezo Alemán Kuhne   250ml</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>67652200100</t>
+          <t>4073724</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Aderezo Vegetalistos Tamarindo 287g</t>
+          <t>Aderezo Gavilla Ajonjolí y Jengibre 250g</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>750301955417</t>
+          <t>750301827474</t>
         </is>
       </c>
     </row>
@@ -3675,132 +3675,132 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Aderezo Albahaca verde Tiempo de Cosecha 250g</t>
+          <t>Aderezo Gavilla Griego 250g</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>750301898715</t>
+          <t>750301827487</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Aderezo Gavilla Italiano Parmesano 250g</t>
+          <t>Aderezo para Ensaladas Provence Estilo Casero 250ml</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>750301827401</t>
+          <t>67652200100</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Aguacate Chiapas por Kg</t>
+          <t>Mostaza Edmond Fallot Dijon Clásicages 250 g</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2503817</t>
+          <t>323014000243</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Aderezo Cebollín Tiempo de Cosecha 250g</t>
+          <t>Aderezo Albahaca verde Tiempo de Cosecha 250g</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>750301898717</t>
+          <t>750301898715</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Aguacate Hass Enmallado pz</t>
+          <t>Aderezo Gavilla Cesar  Cesar 250g</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>750302060508</t>
+          <t>750300063400</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Aderezo Eneldo Tiempo de Cosecha 250g</t>
+          <t>Aguacate Chiapas por Kg</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>750301898718</t>
+          <t>2503817</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Aderezo Vegetalistos Aguacate habanero 254g</t>
+          <t>Aderezo Eneldo Tiempo de Cosecha 250g</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>750301955499</t>
+          <t>750301898718</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Aderezo Arúgula Tiempo de Cosecha 250g</t>
+          <t>Aderezo Cebollín Tiempo de Cosecha 250g</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>750301898729</t>
+          <t>750301898717</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Aguacate Hass por Kg</t>
+          <t>Aderezo Arúgula Tiempo de Cosecha 250g</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2502902</t>
+          <t>750301898729</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Bastones de Dulce Sour Punch 170g</t>
+          <t>Aguacate Hass por Kg</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>3080060800</t>
+          <t>2502902</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Zinolox 4G 5 tab 400 mg Liomont</t>
+          <t>Aguacate Hass Enmallado pz</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>750129930732</t>
+          <t>750302060508</t>
         </is>
       </c>
     </row>
